--- a/biology/Zoologie/John_Gould/John_Gould.xlsx
+++ b/biology/Zoologie/John_Gould/John_Gould.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Gould, né le 14 septembre 1804 à Lyme Regis dans le Dorset, mort à Bedford Square (Londres) le 3 février 1881, est un ornithologue et naturaliste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, jardinier, occupe un poste près de Guildford dans le Surrey avant d'obtenir, en 1818, une place dans les jardins royaux de Windsor. Le jeune Gould reçoit une première formation de jardinier et devient un expert dans l'art de la taxidermie. En 1824, il ouvre un commerce de taxidermisation à Londres ; ses compétences lui permettent d'obtenir un poste important au muséum de la Zoological Society of London en 1827.
 Il épouse Elizabeth Coxen en janvier 1829.
@@ -520,7 +534,7 @@
 Gould publie le compte-rendu de ses observations dans The Birds of Australia en sept volumes (1840-1848), dans lequel il présente 600 oiseaux dont 328 nouveaux pour la science. Il publie aussi A Monograph of the Macropodidae, or Family of Kangaroos (1841-1842) et les Mammals of Australia (1849-1861).
 Après la mort de sa femme en 1841, les livres de Gould sont illustrés par d'autres artistes, dont Henry Constantine Richter, Joseph Wolf et Joseph Smit.
 Pendant toute sa vie, Gould s'intéresse spécialement aux oiseaux-mouches. Il assemble une collection de 320 espèces, qui sont présentées au public à la grande exposition de 1851 puis au Crystal Palace reconstruit à Sydenham. Malgré cette passion, Gould n'avait encore jamais vu un seul oiseau-mouche vivant. En mai 1857, il voyage aux États-Unis avec son second fils, Charles. Il arrive à New York trop tard, pour la saison, pour voir des oiseaux-mouches dans la ville, mais le 21 mai, dans le jardin Bartram de Philadelphie, il voit enfin un colibri à gorge rubis (Archilochus colubris). Il se rend ensuite à Washington où il en découvre plusieurs dans le jardin du Capitole. Gould tente d'en rapporter des exemplaires vivants au Royaume-Uni, mais les conditions du voyage ne lui permettent que de les maintenir en vie au maximum deux mois. Gould publie sa Monograph of Trochilidae en 1861.
-John Gould, contrairement à son contemporain Charles Darwin, tend souvent à minimiser la violence dans le règne animal et l'écarte des illustrations de ses ouvrages. Ainsi, dans The Birds of Great Britain, conformément à l'opinion dominante de son temps, il écrit que les parents d'un nid colonisé par un coucou provoquent involontairement la mort de leurs propres enfants en nourrissant le jeune coucou de préférence à ces derniers, forme égarée mais authentique de l'amour parental. C'est une image de la dessinatrice animalière Jemima Blackburn qui lui fait comprendre que c'est le jeune coucou lui-même qui tue les autres petits en les éjectant du nid[1].
+John Gould, contrairement à son contemporain Charles Darwin, tend souvent à minimiser la violence dans le règne animal et l'écarte des illustrations de ses ouvrages. Ainsi, dans The Birds of Great Britain, conformément à l'opinion dominante de son temps, il écrit que les parents d'un nid colonisé par un coucou provoquent involontairement la mort de leurs propres enfants en nourrissant le jeune coucou de préférence à ces derniers, forme égarée mais authentique de l'amour parental. C'est une image de la dessinatrice animalière Jemima Blackburn qui lui fait comprendre que c'est le jeune coucou lui-même qui tue les autres petits en les éjectant du nid.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Espèces remarquables décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les espèces décrites par John Gould sont très nombreuses, aussi la liste suivante ne présente que celles les plus connues :
 Diamant à queue rousse - Bathilda ruficauda (Gould, 1837), aujourd'hui Neochmia ruficauda
@@ -589,7 +605,9 @@
           <t>Espèces dédiées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plusieurs espèces sont dédiées à John Gould :
 Nicholas Aylward Vigors (1785-1840) en 1831 lui dédie le Souimanga de Gould — Aethopyga gouldiae.
